--- a/kdt/model_accu.xlsx
+++ b/kdt/model_accu.xlsx
@@ -480,28 +480,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.868</v>
+        <v>0.925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="D2" t="n">
-        <v>0.847</v>
+        <v>0.867</v>
       </c>
       <c r="E2" t="n">
-        <v>0.735</v>
+        <v>0.798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.883</v>
+        <v>0.882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.755</v>
+        <v>0.788</v>
       </c>
       <c r="H2" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0.87</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="3">
@@ -509,28 +509,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.835</v>
+        <v>0.968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.945</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.91</v>
+        <v>0.978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.928</v>
+        <v>0.99</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948</v>
+        <v>0.99</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9429999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +538,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="C4" t="n">
-        <v>0.972</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.968</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.925</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="G4" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.91</v>
+        <v>0.997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -567,28 +567,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.957</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.955</v>
+        <v>0.992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
+        <v>0.982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.89</v>
+        <v>0.952</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.93</v>
+        <v>0.985</v>
       </c>
       <c r="H5" t="n">
-        <v>0.95</v>
+        <v>0.985</v>
       </c>
       <c r="I5" t="n">
-        <v>0.957</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="6">
@@ -596,28 +596,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.88</v>
+        <v>0.922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.868</v>
+        <v>0.945</v>
       </c>
       <c r="E6" t="n">
-        <v>0.79</v>
+        <v>0.903</v>
       </c>
       <c r="F6" t="n">
-        <v>0.893</v>
+        <v>0.855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.795</v>
+        <v>0.878</v>
       </c>
       <c r="H6" t="n">
-        <v>0.905</v>
+        <v>0.92</v>
       </c>
       <c r="I6" t="n">
-        <v>0.888</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -625,28 +625,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9</v>
+        <v>0.952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.888</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.847</v>
+        <v>0.925</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="H7" t="n">
-        <v>0.888</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.895</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8">
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.91</v>
+        <v>0.978</v>
       </c>
       <c r="F8" t="n">
-        <v>0.855</v>
+        <v>0.852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.895</v>
+        <v>0.965</v>
       </c>
       <c r="H8" t="n">
-        <v>0.903</v>
+        <v>0.972</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="9">
@@ -683,28 +683,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.862</v>
+        <v>0.99</v>
       </c>
       <c r="C9" t="n">
-        <v>0.945</v>
+        <v>0.972</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9350000000000001</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.92</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.882</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.92</v>
+        <v>0.988</v>
       </c>
       <c r="H9" t="n">
-        <v>0.908</v>
+        <v>0.985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="10">
@@ -712,28 +712,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.915</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="D10" t="n">
-        <v>0.978</v>
+        <v>0.968</v>
       </c>
       <c r="E10" t="n">
-        <v>0.972</v>
+        <v>0.952</v>
       </c>
       <c r="F10" t="n">
-        <v>0.928</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="H10" t="n">
-        <v>0.997</v>
+        <v>0.97</v>
       </c>
       <c r="I10" t="n">
-        <v>0.975</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="11">
@@ -741,28 +741,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.982</v>
+        <v>0.988</v>
       </c>
       <c r="C11" t="n">
-        <v>0.948</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.985</v>
+        <v>0.995</v>
       </c>
       <c r="E11" t="n">
-        <v>0.988</v>
+        <v>0.995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.928</v>
+        <v>0.975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="H11" t="n">
-        <v>0.988</v>
+        <v>0.992</v>
       </c>
       <c r="I11" t="n">
-        <v>0.975</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="12">
@@ -770,28 +770,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.965</v>
+        <v>0.982</v>
       </c>
       <c r="C12" t="n">
-        <v>0.98</v>
+        <v>0.992</v>
       </c>
       <c r="D12" t="n">
-        <v>0.975</v>
+        <v>0.99</v>
       </c>
       <c r="E12" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.858</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.978</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.975</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.978</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="13">
@@ -799,28 +799,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.99</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.978</v>
+        <v>0.997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.985</v>
+        <v>0.992</v>
       </c>
       <c r="E13" t="n">
         <v>0.988</v>
       </c>
       <c r="F13" t="n">
-        <v>0.92</v>
+        <v>0.912</v>
       </c>
       <c r="G13" t="n">
-        <v>0.988</v>
+        <v>0.982</v>
       </c>
       <c r="H13" t="n">
         <v>0.985</v>
       </c>
       <c r="I13" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="14">
@@ -828,28 +828,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.87</v>
+        <v>0.952</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D14" t="n">
-        <v>0.96</v>
+        <v>0.982</v>
       </c>
       <c r="E14" t="n">
-        <v>0.898</v>
+        <v>0.978</v>
       </c>
       <c r="F14" t="n">
-        <v>0.893</v>
+        <v>0.955</v>
       </c>
       <c r="G14" t="n">
-        <v>0.91</v>
+        <v>0.975</v>
       </c>
       <c r="H14" t="n">
-        <v>0.912</v>
+        <v>0.955</v>
       </c>
       <c r="I14" t="n">
-        <v>0.928</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="15">
@@ -857,28 +857,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.872</v>
+        <v>0.898</v>
       </c>
       <c r="D15" t="n">
-        <v>0.893</v>
+        <v>0.915</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.858</v>
+        <v>0.878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.788</v>
+        <v>0.835</v>
       </c>
       <c r="H15" t="n">
-        <v>0.838</v>
+        <v>0.847</v>
       </c>
       <c r="I15" t="n">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="16">
@@ -886,28 +886,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="C16" t="n">
-        <v>0.952</v>
+        <v>0.945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.965</v>
+        <v>0.982</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="F16" t="n">
-        <v>0.962</v>
+        <v>0.955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.957</v>
       </c>
       <c r="H16" t="n">
-        <v>0.948</v>
+        <v>0.958</v>
       </c>
       <c r="I16" t="n">
-        <v>0.972</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="17">
@@ -915,28 +915,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.862</v>
+        <v>0.957</v>
       </c>
       <c r="C17" t="n">
-        <v>0.952</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D17" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.95</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.918</v>
-      </c>
       <c r="F17" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="G17" t="n">
-        <v>0.903</v>
+        <v>0.948</v>
       </c>
       <c r="H17" t="n">
-        <v>0.912</v>
+        <v>0.945</v>
       </c>
       <c r="I17" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="18">
@@ -944,28 +944,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="E18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.982</v>
+        <v>0.965</v>
       </c>
       <c r="G18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -973,28 +973,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.965</v>
+        <v>0.952</v>
       </c>
       <c r="C19" t="n">
-        <v>0.985</v>
+        <v>0.99</v>
       </c>
       <c r="D19" t="n">
-        <v>0.975</v>
+        <v>0.99</v>
       </c>
       <c r="E19" t="n">
-        <v>0.982</v>
+        <v>0.99</v>
       </c>
       <c r="F19" t="n">
-        <v>0.95</v>
+        <v>0.992</v>
       </c>
       <c r="G19" t="n">
-        <v>0.98</v>
+        <v>0.995</v>
       </c>
       <c r="H19" t="n">
-        <v>0.982</v>
+        <v>0.992</v>
       </c>
       <c r="I19" t="n">
-        <v>0.98</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="20">
@@ -1002,28 +1002,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.895</v>
+        <v>0.92</v>
       </c>
       <c r="C20" t="n">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.965</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.965</v>
       </c>
       <c r="F20" t="n">
-        <v>0.952</v>
+        <v>0.97</v>
       </c>
       <c r="G20" t="n">
-        <v>0.95</v>
+        <v>0.965</v>
       </c>
       <c r="H20" t="n">
-        <v>0.952</v>
+        <v>0.968</v>
       </c>
       <c r="I20" t="n">
-        <v>0.95</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="21">
@@ -1031,28 +1031,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.915</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.905</v>
+        <v>0.972</v>
       </c>
       <c r="D21" t="n">
-        <v>0.945</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>0.957</v>
+        <v>0.965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="n">
-        <v>0.95</v>
+        <v>0.968</v>
       </c>
       <c r="H21" t="n">
-        <v>0.955</v>
+        <v>0.968</v>
       </c>
       <c r="I21" t="n">
-        <v>0.96</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="22">
@@ -1060,28 +1060,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.95</v>
+        <v>0.997</v>
       </c>
       <c r="C22" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.995</v>
       </c>
       <c r="E22" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
       <c r="F22" t="n">
-        <v>0.945</v>
+        <v>0.995</v>
       </c>
       <c r="G22" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
       <c r="H22" t="n">
-        <v>0.995</v>
+        <v>0.997</v>
       </c>
       <c r="I22" t="n">
-        <v>0.992</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="23">
@@ -1089,28 +1089,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.778</v>
+        <v>0.86</v>
       </c>
       <c r="C23" t="n">
-        <v>0.835</v>
+        <v>0.845</v>
       </c>
       <c r="D23" t="n">
-        <v>0.835</v>
+        <v>0.893</v>
       </c>
       <c r="E23" t="n">
-        <v>0.832</v>
+        <v>0.875</v>
       </c>
       <c r="F23" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G23" t="n">
-        <v>0.842</v>
+        <v>0.9</v>
       </c>
       <c r="H23" t="n">
-        <v>0.855</v>
+        <v>0.868</v>
       </c>
       <c r="I23" t="n">
-        <v>0.842</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="24">
@@ -1118,28 +1118,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C24" t="n">
         <v>0.915</v>
       </c>
       <c r="D24" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.92</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.918</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.895</v>
-      </c>
       <c r="I24" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="25">
@@ -1147,28 +1147,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.888</v>
+        <v>0.948</v>
       </c>
       <c r="C25" t="n">
         <v>0.905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.955</v>
       </c>
       <c r="E25" t="n">
-        <v>0.88</v>
+        <v>0.915</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.898</v>
+        <v>0.915</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9</v>
+        <v>0.915</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.952</v>
       </c>
     </row>
   </sheetData>
